--- a/src/sample_users.xlsx
+++ b/src/sample_users.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -645,6 +645,181 @@
         </is>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Mehmet</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Ekici</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>mehmet.ekici@example.com</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Turkey</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2025-03-01 14:41:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Marie</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Johansen</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>marie.johansen@example.com</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2025-03-01 14:41:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Moritz</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Van der Kroon</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>moritz.vanderkroon@example.com</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Netherlands</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2025-03-01 14:41:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Abigail</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Chow</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>abigail.chow@example.com</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2025-03-01 14:41:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Elliott</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Lilleby</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>elliott.lilleby@example.com</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2025-03-01 14:41:27</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/src/sample_users.xlsx
+++ b/src/sample_users.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -820,6 +820,181 @@
         </is>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Katarzyna</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Aubert</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>katarzyna.aubert@example.com</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2025-03-01 14:45:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Jairo</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Vergara</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>jairo.vergara@example.com</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2025-03-01 14:45:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Ananya</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Pujari</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>ananya.pujari@example.com</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>2025-03-01 14:45:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Juanita</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Ramos</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>juanita.ramos@example.com</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Australia</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>2025-03-01 14:45:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Judy</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Curtis</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>judy.curtis@example.com</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Ireland</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>2025-03-01 14:45:47</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
